--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -45,73 +45,115 @@
     <t>RAM</t>
   </si>
   <si>
-    <t>Intel Core i5-4200U</t>
-  </si>
-  <si>
-    <t>Asus P550LD</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/68094/Kit/Asus-P550L-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GT 820M</t>
-  </si>
-  <si>
     <t>1366 x 768</t>
   </si>
   <si>
-    <t>Dell Inspiron 3521</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/57994/Kit/Dell-Inspiron-3521-33214G50-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i3-3217U </t>
-  </si>
-  <si>
-    <t>Intel HD Graphics 4000</t>
-  </si>
-  <si>
-    <t>Intel Core i3-3217U</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/61374/Kit/sony-vaio-fit-svf1421qsg-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/60253/Kit/Sony-Vaio-Fit-SVF14217SG-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core i3-3227U</t>
+    <t>NVIDIA  GeForce GT 740M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core i7-4700MQ</t>
+  </si>
+  <si>
+    <t>8 GB DDR3</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4700MQ</t>
+  </si>
+  <si>
+    <t>4 GB DDR3</t>
+  </si>
+  <si>
+    <t>1920 x 1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA GeForce GTX 770M </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core i7-3687U</t>
+  </si>
+  <si>
+    <t>6GB DDR3</t>
+  </si>
+  <si>
+    <t>750GB</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 GB SSD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel HD Graphics</t>
+  </si>
+  <si>
+    <t>0 GB DDR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129 GB SSD </t>
   </si>
   <si>
     <t>1367 x 768</t>
   </si>
   <si>
-    <t>NVIDIA GeForce GT 740M</t>
-  </si>
-  <si>
-    <t>Acer Aspire P3 171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio Fit SVF14217SG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio Fit SVF1421QSG </t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core i5 3339Y</t>
+    <t>6GB DDR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 GB SSD </t>
   </si>
   <si>
     <t>1368 x 768</t>
   </si>
   <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2630QM </t>
+    <t>6GB DDR5</t>
+  </si>
+  <si>
+    <t>Toshiba1111111111</t>
+  </si>
+  <si>
+    <t>Qosmio X70222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiba Portege Z930- (PT237905)  </t>
+  </si>
+  <si>
+    <t>Toshiba Satell332</t>
+  </si>
+  <si>
+    <t>aaaaaaa333333333333</t>
+  </si>
+  <si>
+    <t>bbbbbbbbbbb342342342</t>
+  </si>
+  <si>
+    <t>SangPH534444444</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/129875295602206250.jpg</t>
+  </si>
+  <si>
+    <t>SangPH534444445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131 GB SSD </t>
+  </si>
+  <si>
+    <t>1369 x 768</t>
+  </si>
+  <si>
+    <t>6GB DDR6</t>
   </si>
 </sst>
 </file>
@@ -156,12 +198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -465,31 +504,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,160 +557,264 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>11111</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>11111</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>750</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>11111</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>11111</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>11111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>11111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" t="s">
         <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>11111</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>11112</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -676,11 +823,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4:J9" r:id="rId3" display="http://laptopno1.com"/>
+    <hyperlink ref="C4:C9" r:id="rId4" display="http://laptopno1.com/images/Products/129875295602206250.jpg"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -54,12 +54,6 @@
     <t xml:space="preserve"> Intel Core i7-4700MQ</t>
   </si>
   <si>
-    <t>8 GB DDR3</t>
-  </si>
-  <si>
-    <t>Intel Core i7-4700MQ</t>
-  </si>
-  <si>
     <t>4 GB DDR3</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t xml:space="preserve">NVIDIA GeForce GTX 770M </t>
   </si>
   <si>
-    <t xml:space="preserve"> Intel Core i7-3687U</t>
-  </si>
-  <si>
     <t>6GB DDR3</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>6GB DDR4</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">130 GB SSD </t>
   </si>
   <si>
@@ -154,6 +142,33 @@
   </si>
   <si>
     <t>6GB DDR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core i7-4700MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core i7-4700MZ</t>
+  </si>
+  <si>
+    <t>Intel Corefsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core ifadfda</t>
+  </si>
+  <si>
+    <t>Intel Core đâfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core fadfđầ</t>
+  </si>
+  <si>
+    <t>1920 x 1081</t>
+  </si>
+  <si>
+    <t>8 GB DDR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dddddddđ</t>
   </si>
 </sst>
 </file>
@@ -507,7 +522,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:J10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,10 +573,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -569,31 +584,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I3">
         <v>11111</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,31 +616,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>11111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,31 +648,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>11111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -665,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -677,19 +692,19 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
       </c>
       <c r="I6">
         <v>11111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -697,28 +712,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>11111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -726,31 +741,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>11111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -758,31 +773,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>11111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -790,31 +805,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
       </c>
       <c r="I10">
         <v>11112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -51,9 +51,6 @@
     <t>NVIDIA  GeForce GT 740M</t>
   </si>
   <si>
-    <t xml:space="preserve"> Intel Core i7-4700MQ</t>
-  </si>
-  <si>
     <t>4 GB DDR3</t>
   </si>
   <si>
@@ -144,31 +141,10 @@
     <t>6GB DDR6</t>
   </si>
   <si>
-    <t xml:space="preserve"> Intel Core i7-4700MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intel Core i7-4700MZ</t>
-  </si>
-  <si>
-    <t>Intel Corefsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intel Core ifadfda</t>
-  </si>
-  <si>
-    <t>Intel Core đâfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intel Core fadfđầ</t>
-  </si>
-  <si>
     <t>1920 x 1081</t>
   </si>
   <si>
     <t>8 GB DDR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dddddddđ</t>
   </si>
 </sst>
 </file>
@@ -521,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +549,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -584,31 +560,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>11111111</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>11111</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -616,31 +592,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>11111111</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>11111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -648,31 +624,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>11111111</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>11111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -680,31 +656,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>11111111</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6">
         <v>11111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -712,28 +688,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>11111111</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>11111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -741,31 +717,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>11111111</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
       <c r="I8">
         <v>11111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -773,31 +749,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>11111111</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
       <c r="I9">
         <v>11111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -805,31 +781,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>11111111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
       </c>
       <c r="I10">
         <v>11112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
